--- a/论文用图表/表4.3：shrinkage后的R2.xlsx
+++ b/论文用图表/表4.3：shrinkage后的R2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhan\Desktop\毕业论文\中国市场\论文用图表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664ECD5-EDA1-4874-B0FB-AD85AED08151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ABF747-E44F-4B59-A8B8-33F61FD18909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>R_square</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC</t>
   </si>
 </sst>
 </file>
@@ -107,10 +110,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -118,7 +119,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -128,9 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -139,10 +148,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,89 +432,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H12:J18"/>
+  <dimension ref="G11:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H12" s="3" t="s">
+    <row r="11" spans="7:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-1.7543926042344</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.5953864269900599</v>
+      </c>
+      <c r="L13" s="7">
+        <v>-1.7543926042344</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.5953864269900599</v>
+      </c>
+      <c r="N13">
+        <f>L13*100</f>
+        <v>-175.43926042344</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G14" s="6"/>
+      <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="4">
-        <v>4.7666451667852501</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2.6798914257856499</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="2">
+        <v>2.3310624673010798</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.88053572515377</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2.3310624673010798</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.88053572515377</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="L14:N19" si="0">L14*100</f>
+        <v>233.10624673010798</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G15" s="6"/>
+      <c r="H15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="4">
-        <v>4.1570147200550505</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2.4849810517496702</v>
-      </c>
-    </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="2">
+        <v>3.12185784591767</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.02619868879373</v>
+      </c>
+      <c r="L15" s="7">
+        <v>3.12185784591767</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2.02619868879373</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>312.185784591767</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G16" s="6"/>
+      <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="4">
-        <v>4.2972071286529498</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2.5185022214052299</v>
-      </c>
-    </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="2">
+        <v>3.1833945951245002</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.03360384690103</v>
+      </c>
+      <c r="L16" s="7">
+        <v>3.1833945951245002</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2.03360384690103</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>318.33945951244999</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G17" s="6"/>
+      <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="4">
-        <v>-4.88926922287857E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.57420875782976</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="2">
+        <v>0.94282497223787609</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.2099193309049801</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.94282497223787609</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1.2099193309049801</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>94.282497223787615</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G18" s="6"/>
+      <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="4">
-        <v>3.9749252926443899</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2.3505495200168101</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="5">
-        <v>-2.4279205757219602</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1.3048157232211499</v>
+      <c r="I18" s="2">
+        <v>2.6620330007498301</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.0669637893201398</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2.6620330007498301</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2.0669637893201398</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>266.20330007498302</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.94252649399419</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.02591530865491</v>
+      </c>
+      <c r="L19" s="7">
+        <v>2.94252649399419</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2.02591530865491</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>294.252649399419</v>
       </c>
     </row>
   </sheetData>
